--- a/data/CS1/case30/case30_2020.xlsx
+++ b/data/CS1/case30/case30_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896DC341-BCA8-4CD3-B17D-1EE705909FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532BEBD4-6112-47D3-A6F3-E85941B35034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
@@ -6455,10 +6455,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
@@ -7420,7 +7420,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9616,7 +9616,7 @@
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:Y12"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11615,8 +11615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42CD27A-91A8-4D31-B70E-255219E25912}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24798,8 +24798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26762,7 +26762,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27426,7 +27426,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
